--- a/data/helsinki.xlsx
+++ b/data/helsinki.xlsx
@@ -5,18 +5,18 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\rendu-data-tp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul-\Desktop\dossiers\EPSI\data\depot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E989660-3208-432C-855D-57BDC3D448C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC2EE9-7B1C-41B3-A7E3-96038557D3F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5070" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SI " sheetId="2" r:id="rId1"/>
     <sheet name="SI -erreur" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>janvier</t>
   </si>
@@ -178,12 +178,6 @@
     <t>min /max</t>
   </si>
   <si>
-    <t>identifier les valeurs atypiques ou manquantes</t>
-  </si>
-  <si>
-    <t>définir une méthode pour identifier une valeur atypique</t>
-  </si>
-  <si>
     <t>pour cet échantillon :</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>Températures moyennes d'une capitale d'Europe</t>
   </si>
   <si>
-    <t>calculer</t>
-  </si>
-  <si>
     <t>par mois</t>
   </si>
   <si>
@@ -215,12 +206,6 @@
   </si>
   <si>
     <t>reprendre les données typiques d'une localisation proche  fournies en complément , comparer les écarts. Qu'en concluez vous ?</t>
-  </si>
-  <si>
-    <t>définir une loi pour valider la pertinence ou non d'une valeur atypique</t>
-  </si>
-  <si>
-    <t>implémenter ces lois dans votre application précédente</t>
   </si>
 </sst>
 </file>
@@ -774,7 +759,7 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -2076,7 +2061,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2084,7 +2069,7 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2092,7 +2077,7 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2100,37 +2085,37 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2146,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O35"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2202,40 +2187,40 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>-4</v>
+        <v>0.66666666666666818</v>
       </c>
       <c r="E5">
-        <v>-28</v>
+        <v>-1.6111111111111103</v>
       </c>
       <c r="F5">
-        <v>-9.8000000000000007</v>
+        <v>-16.111111111111111</v>
       </c>
       <c r="G5">
-        <v>-5.7</v>
+        <v>-1.888888888888888</v>
       </c>
       <c r="H5">
-        <v>2.8</v>
+        <v>6.8888888888888875</v>
       </c>
       <c r="I5">
-        <v>12.3</v>
+        <v>17.222222222222221</v>
       </c>
       <c r="J5">
-        <v>13.9</v>
+        <v>15.666666666666668</v>
       </c>
       <c r="K5">
-        <v>24.2</v>
+        <v>24.888888888888886</v>
       </c>
       <c r="L5">
-        <v>9.1999999999999993</v>
+        <v>16.277777777777775</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>9.2222222222222232</v>
       </c>
       <c r="N5">
-        <v>2.2999999999999998</v>
+        <v>7.2222222222222223</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>-1.5555555555555558</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2243,40 +2228,40 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>-4.5999999999999996</v>
+        <v>3.5555555555555545</v>
       </c>
       <c r="E6">
-        <v>-21.4</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="F6">
-        <v>-7.8</v>
+        <v>-14.111111111111111</v>
       </c>
       <c r="G6">
-        <v>-5.7</v>
+        <v>-0.6666666666666663</v>
       </c>
       <c r="H6">
-        <v>2.6</v>
+        <v>7.3333333333333348</v>
       </c>
       <c r="I6">
-        <v>11.4</v>
+        <v>19.777777777777775</v>
       </c>
       <c r="J6">
-        <v>17.899999999999999</v>
+        <v>12.777777777777777</v>
       </c>
       <c r="K6">
-        <v>19.899999999999999</v>
+        <v>24.444444444444443</v>
       </c>
       <c r="L6">
-        <v>13</v>
+        <v>15.888888888888889</v>
       </c>
       <c r="M6">
-        <v>-1.2</v>
+        <v>7.3333333333333348</v>
       </c>
       <c r="N6">
-        <v>-2</v>
+        <v>8.7777777777777768</v>
       </c>
       <c r="O6">
-        <v>-3.5</v>
+        <v>-1.3888888888888888</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2284,40 +2269,40 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>-4.4000000000000004</v>
+        <v>2.6666666666666652</v>
       </c>
       <c r="E7">
-        <v>-18</v>
+        <v>-6.4444444444444446</v>
       </c>
       <c r="F7">
-        <v>-15.8</v>
+        <v>-12.388888888888889</v>
       </c>
       <c r="G7">
-        <v>-2.6</v>
+        <v>-1.0555555555555547</v>
       </c>
       <c r="H7">
-        <v>4.2</v>
+        <v>8.7222222222222232</v>
       </c>
       <c r="I7">
-        <v>8.8000000000000007</v>
+        <v>19</v>
       </c>
       <c r="J7">
-        <v>17.8</v>
+        <v>12.777777777777777</v>
       </c>
       <c r="K7">
-        <v>15.5</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="L7">
-        <v>13.4</v>
+        <v>15.777777777777777</v>
       </c>
       <c r="M7">
-        <v>-2.6</v>
+        <v>5.0555555555555562</v>
       </c>
       <c r="N7">
-        <v>-0.1</v>
+        <v>7.3888888888888875</v>
       </c>
       <c r="O7">
-        <v>-3.2</v>
+        <v>-1.0555555555555547</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2325,40 +2310,40 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>-6.5</v>
+        <v>-72.777777777777771</v>
       </c>
       <c r="E8">
-        <v>-23.3</v>
+        <v>-11.277777777777779</v>
       </c>
       <c r="F8">
-        <v>-17.899999999999999</v>
+        <v>-12.833333333333334</v>
       </c>
       <c r="G8">
-        <v>-2</v>
+        <v>-0.44444444444444481</v>
       </c>
       <c r="H8">
-        <v>1.3</v>
+        <v>9.0555555555555536</v>
       </c>
       <c r="I8">
-        <v>5.4</v>
+        <v>15.111111111111112</v>
       </c>
       <c r="J8">
-        <v>15.4</v>
+        <v>15.444444444444443</v>
       </c>
       <c r="K8">
-        <v>13.6</v>
+        <v>20.722222222222221</v>
       </c>
       <c r="L8">
-        <v>11.4</v>
+        <v>14.5</v>
       </c>
       <c r="M8">
-        <v>-2.7</v>
+        <v>2.5555555555555562</v>
       </c>
       <c r="N8">
-        <v>0.4</v>
+        <v>5.4444444444444429</v>
       </c>
       <c r="O8">
-        <v>-6.1</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2366,40 +2351,40 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>-11.2</v>
+        <v>3.4999999999999982</v>
       </c>
       <c r="E9">
-        <v>-27.1</v>
+        <v>-9.0555555555555554</v>
       </c>
       <c r="F9">
-        <v>-18.600000000000001</v>
+        <v>-11.888888888888888</v>
       </c>
       <c r="G9">
-        <v>-0.5</v>
+        <v>4.2222222222222232</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>9.9444444444444429</v>
       </c>
       <c r="I9">
-        <v>4.5</v>
+        <v>9.3888888888888875</v>
       </c>
       <c r="J9">
-        <v>13.7</v>
+        <v>16.833333333333332</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>15.055555555555555</v>
       </c>
       <c r="M9">
-        <v>-1.7</v>
+        <v>7.2777777777777786</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>5.6666666666666679</v>
       </c>
       <c r="O9">
-        <v>-3.7</v>
+        <v>2.0555555555555571</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -2407,40 +2392,40 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>-2.8</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="E10">
-        <v>-21.5</v>
+        <v>-9.3888888888888875</v>
       </c>
       <c r="F10">
-        <v>-22.6</v>
+        <v>-6.8888888888888875</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>2.6111111111111125</v>
       </c>
       <c r="H10">
-        <v>6.1</v>
+        <v>11.444444444444445</v>
       </c>
       <c r="I10">
-        <v>4.5</v>
+        <v>9.0555555555555536</v>
       </c>
       <c r="J10">
-        <v>17.7</v>
+        <v>17.222222222222221</v>
       </c>
       <c r="K10">
-        <v>11.8</v>
+        <v>17.222222222222221</v>
       </c>
       <c r="L10">
-        <v>9.3000000000000007</v>
+        <v>16.277777777777775</v>
       </c>
       <c r="M10">
-        <v>-1.3</v>
+        <v>7.9444444444444429</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>6.1111111111111107</v>
       </c>
       <c r="O10">
-        <v>-5.2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -2448,40 +2433,40 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>-6</v>
+        <v>-2.0555555555555549</v>
       </c>
       <c r="E11">
-        <v>-15.7</v>
+        <v>-8.5</v>
       </c>
       <c r="F11">
-        <v>-16.7</v>
+        <v>-8.3888888888888893</v>
       </c>
       <c r="G11">
-        <v>-1.6</v>
+        <v>3.1111111111111116</v>
       </c>
       <c r="H11">
-        <v>3.7</v>
+        <v>14.388888888888888</v>
       </c>
       <c r="I11">
-        <v>5.7</v>
+        <v>11.277777777777777</v>
       </c>
       <c r="J11">
-        <v>15.1</v>
+        <v>20.388888888888889</v>
       </c>
       <c r="K11">
-        <v>10.1</v>
+        <v>18.111111111111107</v>
       </c>
       <c r="L11">
-        <v>6.6</v>
+        <v>17.111111111111111</v>
       </c>
       <c r="M11">
-        <v>-3.3</v>
+        <v>4.6111111111111098</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="O11">
-        <v>-7.1</v>
+        <v>-5.5555555555556344E-2</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -2489,40 +2474,40 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>-11.7</v>
+        <v>-1.722222222222223</v>
       </c>
       <c r="E12">
-        <v>-16</v>
+        <v>-4.8888888888888893</v>
       </c>
       <c r="F12">
-        <v>-14.3</v>
+        <v>-5.7222222222222223</v>
       </c>
       <c r="G12">
-        <v>-3.8</v>
+        <v>4.5000000000000009</v>
       </c>
       <c r="H12">
-        <v>5.3</v>
+        <v>12.666666666666664</v>
       </c>
       <c r="I12">
-        <v>6.2</v>
+        <v>11.888888888888888</v>
       </c>
       <c r="J12">
-        <v>18.3</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="K12">
-        <v>15.6</v>
+        <v>18.944444444444439</v>
       </c>
       <c r="L12">
-        <v>5.5</v>
+        <v>19.333333333333332</v>
       </c>
       <c r="M12">
-        <v>-2.9</v>
+        <v>5.1111111111111125</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>6.2222222222222232</v>
       </c>
       <c r="O12">
-        <v>-3.4</v>
+        <v>1.3888888888888888</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -2530,40 +2515,40 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>-13</v>
+        <v>-0.83333333333333326</v>
       </c>
       <c r="E13">
-        <v>-6.3</v>
+        <v>-6.7777777777777768</v>
       </c>
       <c r="F13">
-        <v>-9.6999999999999993</v>
+        <v>-0.55555555555555558</v>
       </c>
       <c r="G13">
-        <v>-4.9000000000000004</v>
+        <v>6.2222222222222232</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11.500000000000002</v>
       </c>
       <c r="I13">
-        <v>8.6</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="J13">
-        <v>18.600000000000001</v>
+        <v>17.944444444444443</v>
       </c>
       <c r="K13">
-        <v>18.600000000000001</v>
+        <v>24.277777777777779</v>
       </c>
       <c r="L13">
-        <v>7.2</v>
+        <v>17.611111111111111</v>
       </c>
       <c r="M13">
-        <v>3.9</v>
+        <v>11.277777777777777</v>
       </c>
       <c r="N13">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="O13">
-        <v>-2.7</v>
+        <v>3.7777777777777759</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -2571,40 +2556,40 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>-8.9</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="E14">
-        <v>-6.2</v>
+        <v>-6.6666666666666661</v>
       </c>
       <c r="F14">
-        <v>-6.5</v>
+        <v>-0.11111111111111072</v>
       </c>
       <c r="G14">
-        <v>-2.2000000000000002</v>
+        <v>2.3333333333333348</v>
       </c>
       <c r="H14">
-        <v>13.7</v>
+        <v>12.666666666666664</v>
       </c>
       <c r="I14">
-        <v>9.6</v>
+        <v>14.944444444444443</v>
       </c>
       <c r="J14">
-        <v>19.5</v>
+        <v>16.055555555555554</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>23.166666666666668</v>
       </c>
       <c r="L14">
-        <v>9.6999999999999993</v>
+        <v>16.944444444444443</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>11.555555555555554</v>
       </c>
       <c r="N14">
-        <v>-0.3</v>
+        <v>4.9444444444444438</v>
       </c>
       <c r="O14">
-        <v>-2.5</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -2612,40 +2597,40 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>-6.2</v>
+        <v>-4.1111111111111098</v>
       </c>
       <c r="E15">
-        <v>-8.3000000000000007</v>
+        <v>-4.3888888888888884</v>
       </c>
       <c r="F15">
-        <v>-3.4</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="G15">
-        <v>-2.2000000000000002</v>
+        <v>0.22222222222222143</v>
       </c>
       <c r="H15">
-        <v>13.8</v>
+        <v>14.388888888888888</v>
       </c>
       <c r="I15">
-        <v>8.3000000000000007</v>
+        <v>19.833333333333336</v>
       </c>
       <c r="J15">
-        <v>21.6</v>
+        <v>18.222222222222221</v>
       </c>
       <c r="K15">
-        <v>16.399999999999999</v>
+        <v>19.611111111111111</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="M15">
-        <v>0.3</v>
+        <v>9.0555555555555536</v>
       </c>
       <c r="N15">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>-3.4</v>
+        <v>0.61111111111111194</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -2653,40 +2638,40 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>-6.5</v>
+        <v>-3.9999999999999996</v>
       </c>
       <c r="E16">
-        <v>-12.9</v>
+        <v>-2.9999999999999991</v>
       </c>
       <c r="F16">
-        <v>-7.2</v>
+        <v>-0.55555555555555558</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>3.0555555555555554</v>
       </c>
       <c r="H16">
-        <v>14.7</v>
+        <v>15.277777777777777</v>
       </c>
       <c r="I16">
-        <v>4.5</v>
+        <v>15.777777777777777</v>
       </c>
       <c r="J16">
-        <v>20.7</v>
+        <v>20.222222222222225</v>
       </c>
       <c r="K16">
-        <v>13.8</v>
+        <v>14.555555555555557</v>
       </c>
       <c r="L16">
-        <v>9.8000000000000007</v>
+        <v>14.111111111111111</v>
       </c>
       <c r="M16">
-        <v>4.9000000000000004</v>
+        <v>10.222222222222221</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>-15</v>
+        <v>-0.38888888888888851</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
@@ -2694,40 +2679,40 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>-10.1</v>
+        <v>-2.6111111111111107</v>
       </c>
       <c r="E17">
-        <v>-7.2</v>
+        <v>-0.33333333333333409</v>
       </c>
       <c r="F17">
-        <v>-9</v>
+        <v>1.5000000000000016</v>
       </c>
       <c r="G17">
-        <v>0.7</v>
+        <v>4.0000000000000018</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>17.055555555555557</v>
       </c>
       <c r="I17">
-        <v>6.5</v>
+        <v>14.944444444444443</v>
       </c>
       <c r="J17">
-        <v>19.600000000000001</v>
+        <v>21.833333333333332</v>
       </c>
       <c r="K17">
-        <v>11.9</v>
+        <v>14.722222222222221</v>
       </c>
       <c r="L17">
-        <v>10.6</v>
+        <v>12.999999999999998</v>
       </c>
       <c r="M17">
-        <v>7.4</v>
+        <v>11.777777777777779</v>
       </c>
       <c r="N17">
-        <v>3.3</v>
+        <v>5.7777777777777768</v>
       </c>
       <c r="O17">
-        <v>-12.3</v>
+        <v>-2.2222222222222223</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
@@ -2735,40 +2720,40 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>-3</v>
+        <v>-3.8333333333333326</v>
       </c>
       <c r="E18">
-        <v>-2.5</v>
+        <v>-0.22222222222222143</v>
       </c>
       <c r="F18">
-        <v>-9.4</v>
+        <v>-2.9444444444444446</v>
       </c>
       <c r="G18">
-        <v>1.9</v>
+        <v>6.1111111111111107</v>
       </c>
       <c r="H18">
-        <v>15.6</v>
+        <v>19.888888888888886</v>
       </c>
       <c r="I18">
-        <v>10.6</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="J18">
-        <v>17.100000000000001</v>
+        <v>22.388888888888886</v>
       </c>
       <c r="K18">
-        <v>8.6999999999999993</v>
+        <v>15.944444444444446</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>12.944444444444443</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>12.944444444444443</v>
       </c>
       <c r="N18">
-        <v>0.2</v>
+        <v>-7.7777777777777999</v>
       </c>
       <c r="O18">
-        <v>-5.7</v>
+        <v>-5.166666666666667</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
@@ -2776,40 +2761,40 @@
         <v>26</v>
       </c>
       <c r="D19">
-        <v>-5.3</v>
+        <v>-7.0000000000000009</v>
       </c>
       <c r="E19">
-        <v>-2.4</v>
+        <v>-3.8888888888888888</v>
       </c>
       <c r="F19">
-        <v>-13.4</v>
+        <v>-8.1111111111111125</v>
       </c>
       <c r="G19">
-        <v>0.9</v>
+        <v>6.2222222222222232</v>
       </c>
       <c r="H19">
-        <v>14.9</v>
+        <v>20.222222222222225</v>
       </c>
       <c r="I19">
-        <v>14.9</v>
+        <v>17.388888888888886</v>
       </c>
       <c r="J19">
-        <v>17.3</v>
+        <v>24.111111111111114</v>
       </c>
       <c r="K19">
-        <v>9.6999999999999993</v>
+        <v>15.888888888888889</v>
       </c>
       <c r="L19">
-        <v>9.1999999999999993</v>
+        <v>13.611111111111111</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="N19">
-        <v>2.2999999999999998</v>
+        <v>-7.7777777777777999</v>
       </c>
       <c r="O19">
-        <v>-5.2</v>
+        <v>-6.0555555555555545</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
@@ -2817,40 +2802,40 @@
         <v>27</v>
       </c>
       <c r="D20">
-        <v>-11.2</v>
+        <v>-6.4444444444444446</v>
       </c>
       <c r="E20">
-        <v>-4</v>
+        <v>-5.1111111111111107</v>
       </c>
       <c r="F20">
-        <v>-13.2</v>
+        <v>-8.5555555555555554</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>7.8888888888888902</v>
       </c>
       <c r="H20">
-        <v>16.7</v>
+        <v>18.444444444444446</v>
       </c>
       <c r="I20">
-        <v>16.399999999999999</v>
+        <v>17.722222222222221</v>
       </c>
       <c r="J20">
-        <v>19.899999999999999</v>
+        <v>25.222222222222225</v>
       </c>
       <c r="K20">
-        <v>10.199999999999999</v>
+        <v>16.833333333333332</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="M20">
-        <v>1.5</v>
+        <v>11.277777777777777</v>
       </c>
       <c r="N20">
-        <v>4.4000000000000004</v>
+        <v>8.8333333333333321</v>
       </c>
       <c r="O20">
-        <v>-4.4000000000000004</v>
+        <v>-4.2777777777777777</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
@@ -2858,40 +2843,40 @@
         <v>28</v>
       </c>
       <c r="D21">
-        <v>-15.8</v>
+        <v>-6.2777777777777777</v>
       </c>
       <c r="E21">
-        <v>-8.5</v>
+        <v>-7.7222222222222214</v>
       </c>
       <c r="F21">
-        <v>-8.6999999999999993</v>
+        <v>-6.7777777777777768</v>
       </c>
       <c r="G21">
-        <v>4.9000000000000004</v>
+        <v>7.1111111111111089</v>
       </c>
       <c r="H21">
-        <v>7.9</v>
+        <v>16.833333333333332</v>
       </c>
       <c r="I21">
-        <v>16.100000000000001</v>
+        <v>18.611111111111111</v>
       </c>
       <c r="J21">
-        <v>23.3</v>
+        <v>25.444444444444443</v>
       </c>
       <c r="K21">
-        <v>17.100000000000001</v>
+        <v>18.944444444444439</v>
       </c>
       <c r="L21">
-        <v>6.3</v>
+        <v>10.388888888888891</v>
       </c>
       <c r="M21">
-        <v>1.1000000000000001</v>
+        <v>10.833333333333334</v>
       </c>
       <c r="N21">
-        <v>3.8</v>
+        <v>-7.7777777777777999</v>
       </c>
       <c r="O21">
-        <v>-7.9</v>
+        <v>-0.72222222222222265</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
@@ -2899,40 +2884,40 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>-10.5</v>
+        <v>-4.3888888888888884</v>
       </c>
       <c r="E22">
-        <v>-13.7</v>
+        <v>-10.499999999999998</v>
       </c>
       <c r="F22">
-        <v>-4.9000000000000004</v>
+        <v>-1.6111111111111103</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>9.1111111111111107</v>
       </c>
       <c r="H22">
-        <v>6.4</v>
+        <v>13.833333333333332</v>
       </c>
       <c r="I22">
-        <v>14.8</v>
+        <v>18.222222222222221</v>
       </c>
       <c r="J22">
-        <v>25</v>
+        <v>24.222222222222218</v>
       </c>
       <c r="K22">
-        <v>16.899999999999999</v>
+        <v>20.222222222222225</v>
       </c>
       <c r="L22">
-        <v>5.9</v>
+        <v>14.611111111111109</v>
       </c>
       <c r="M22">
-        <v>3.2</v>
+        <v>10.555555555555555</v>
       </c>
       <c r="N22">
-        <v>-3.4</v>
+        <v>3.7222222222222237</v>
       </c>
       <c r="O22">
-        <v>-7</v>
+        <v>0.16666666666666508</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
@@ -2940,40 +2925,40 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>-14</v>
+        <v>-4.6111111111111116</v>
       </c>
       <c r="E23">
-        <v>-20.100000000000001</v>
+        <v>-11.444444444444445</v>
       </c>
       <c r="F23">
-        <v>-10.4</v>
+        <v>0.11111111111111269</v>
       </c>
       <c r="G23">
-        <v>1.7</v>
+        <v>10.444444444444443</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>13.444444444444446</v>
       </c>
       <c r="I23">
-        <v>14.8</v>
+        <v>14.777777777777779</v>
       </c>
       <c r="J23">
-        <v>24.1</v>
+        <v>23.611111111111111</v>
       </c>
       <c r="K23">
-        <v>13.7</v>
+        <v>18.055555555555554</v>
       </c>
       <c r="L23">
-        <v>5.9</v>
+        <v>16.055555555555554</v>
       </c>
       <c r="M23">
-        <v>0.6</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="N23">
-        <v>-4.5999999999999996</v>
+        <v>-0.83333333333333326</v>
       </c>
       <c r="O23">
-        <v>-7</v>
+        <v>-0.22222222222222143</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
@@ -2981,40 +2966,40 @@
         <v>31</v>
       </c>
       <c r="D24">
-        <v>-11.5</v>
+        <v>-3.5555555555555545</v>
       </c>
       <c r="E24">
-        <v>-22.1</v>
+        <v>-12.333333333333332</v>
       </c>
       <c r="F24">
-        <v>-16.600000000000001</v>
+        <v>-4.3333333333333339</v>
       </c>
       <c r="G24">
-        <v>-1.5</v>
+        <v>10.444444444444443</v>
       </c>
       <c r="H24">
-        <v>10.6</v>
+        <v>14.944444444444443</v>
       </c>
       <c r="I24">
-        <v>11.9</v>
+        <v>16.444444444444446</v>
       </c>
       <c r="J24">
-        <v>23.5</v>
+        <v>19.944444444444446</v>
       </c>
       <c r="K24">
-        <v>10.7</v>
+        <v>13.944444444444445</v>
       </c>
       <c r="L24">
-        <v>9.1999999999999993</v>
+        <v>15.72222222222222</v>
       </c>
       <c r="M24">
-        <v>-0.3</v>
+        <v>4.2222222222222232</v>
       </c>
       <c r="N24">
-        <v>-0.3</v>
+        <v>-0.88888888888888962</v>
       </c>
       <c r="O24">
-        <v>-6.7</v>
+        <v>-4.3333333333333339</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
@@ -3022,40 +3007,40 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>-13.3</v>
+        <v>-7.5</v>
       </c>
       <c r="E25">
-        <v>-15.6</v>
+        <v>-16.277777777777779</v>
       </c>
       <c r="F25">
-        <v>-11.5</v>
+        <v>-6.0555555555555545</v>
       </c>
       <c r="G25">
-        <v>-1.6</v>
+        <v>8.3888888888888893</v>
       </c>
       <c r="H25">
-        <v>15.6</v>
+        <v>17.222222222222221</v>
       </c>
       <c r="I25">
-        <v>12.5</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="J25">
-        <v>18.8</v>
+        <v>21.222222222222225</v>
       </c>
       <c r="K25">
-        <v>10.199999999999999</v>
+        <v>13.777777777777775</v>
       </c>
       <c r="L25">
-        <v>10.1</v>
+        <v>16.611111111111111</v>
       </c>
       <c r="M25">
-        <v>4.7</v>
+        <v>8.2777777777777768</v>
       </c>
       <c r="N25">
-        <v>-0.6</v>
+        <v>-2.1666666666666656</v>
       </c>
       <c r="O25">
-        <v>-9.6</v>
+        <v>-7.1111111111111116</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
@@ -3063,40 +3048,40 @@
         <v>33</v>
       </c>
       <c r="D26">
-        <v>-21</v>
+        <v>-8.1666666666666661</v>
       </c>
       <c r="E26">
-        <v>-16.8</v>
+        <v>-17.611111111111111</v>
       </c>
       <c r="F26">
-        <v>-8.6999999999999993</v>
+        <v>-0.27777777777777779</v>
       </c>
       <c r="G26">
-        <v>-0.8</v>
+        <v>4.2777777777777795</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>17.666666666666664</v>
       </c>
       <c r="I26">
-        <v>11</v>
+        <v>11.944444444444445</v>
       </c>
       <c r="J26">
-        <v>20.5</v>
+        <v>22.055555555555557</v>
       </c>
       <c r="K26">
-        <v>9</v>
+        <v>15.222222222222221</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>13.611111111111111</v>
       </c>
       <c r="M26">
-        <v>0.9</v>
+        <v>10.055555555555555</v>
       </c>
       <c r="N26">
-        <v>-0.8</v>
+        <v>-0.94444444444444398</v>
       </c>
       <c r="O26">
-        <v>-22</v>
+        <v>-9.1111111111111107</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
@@ -3104,40 +3089,40 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>-22.2</v>
+        <v>-8.2222222222222232</v>
       </c>
       <c r="E27">
-        <v>-23.8</v>
+        <v>-15.499999999999998</v>
       </c>
       <c r="F27">
-        <v>-12.3</v>
+        <v>-3.6111111111111112</v>
       </c>
       <c r="G27">
-        <v>2.1</v>
+        <v>3.6111111111111112</v>
       </c>
       <c r="H27">
-        <v>7.9</v>
+        <v>18.166666666666668</v>
       </c>
       <c r="I27">
-        <v>11.1</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="J27">
-        <v>20.6</v>
+        <v>21.333333333333336</v>
       </c>
       <c r="K27">
-        <v>8.9</v>
+        <v>18.499999999999996</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="M27">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>-3.4</v>
+        <v>-0.44444444444444481</v>
       </c>
       <c r="O27">
-        <v>-24.6</v>
+        <v>-9.6111111111111107</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
@@ -3145,40 +3130,40 @@
         <v>35</v>
       </c>
       <c r="D28">
-        <v>-22.5</v>
+        <v>-1.1666666666666674</v>
       </c>
       <c r="E28">
-        <v>-20</v>
+        <v>-15.055555555555555</v>
       </c>
       <c r="F28">
-        <v>-8.8000000000000007</v>
+        <v>-1.3333333333333326</v>
       </c>
       <c r="G28">
-        <v>3.8</v>
+        <v>6.5555555555555536</v>
       </c>
       <c r="H28">
-        <v>7.6</v>
+        <v>14.5</v>
       </c>
       <c r="I28">
-        <v>11.1</v>
+        <v>14.166666666666666</v>
       </c>
       <c r="J28">
-        <v>21.3</v>
+        <v>22.333333333333336</v>
       </c>
       <c r="K28">
-        <v>9.6</v>
+        <v>19.111111111111114</v>
       </c>
       <c r="L28">
-        <v>5.0999999999999996</v>
+        <v>4.3888888888888884</v>
       </c>
       <c r="M28">
-        <v>-5.5</v>
+        <v>3.3888888888888897</v>
       </c>
       <c r="N28">
-        <v>-2.6</v>
+        <v>-1.1666666666666674</v>
       </c>
       <c r="O28">
-        <v>-14.7</v>
+        <v>-11.611111111111111</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
@@ -3186,40 +3171,40 @@
         <v>36</v>
       </c>
       <c r="D29">
-        <v>-4</v>
+        <v>4.0555555555555536</v>
       </c>
       <c r="E29">
-        <v>-9.4</v>
+        <v>-10.722222222222223</v>
       </c>
       <c r="F29">
-        <v>-13.3</v>
+        <v>1.7777777777777792</v>
       </c>
       <c r="G29">
-        <v>3.6</v>
+        <v>6.4444444444444446</v>
       </c>
       <c r="H29">
-        <v>14.5</v>
+        <v>14.388888888888888</v>
       </c>
       <c r="I29">
-        <v>15.3</v>
+        <v>14.944444444444443</v>
       </c>
       <c r="J29">
-        <v>22.9</v>
+        <v>23.777777777777775</v>
       </c>
       <c r="K29">
-        <v>14.6</v>
+        <v>16.833333333333332</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="M29">
-        <v>-3.9</v>
+        <v>0.72222222222222066</v>
       </c>
       <c r="N29">
-        <v>-5</v>
+        <v>-5.0555555555555562</v>
       </c>
       <c r="O29">
-        <v>-7.6</v>
+        <v>0.22222222222222143</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
@@ -3227,40 +3212,40 @@
         <v>37</v>
       </c>
       <c r="D30">
-        <v>-12.1</v>
+        <v>2.9444444444444429</v>
       </c>
       <c r="E30">
-        <v>-7.7</v>
+        <v>-10.722222222222223</v>
       </c>
       <c r="F30">
-        <v>-11</v>
+        <v>-3.5555555555555545</v>
       </c>
       <c r="G30">
-        <v>3.2</v>
+        <v>6.2222222222222232</v>
       </c>
       <c r="H30">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="I30">
-        <v>16.100000000000001</v>
+        <v>17.222222222222221</v>
       </c>
       <c r="J30">
-        <v>17.399999999999999</v>
+        <v>23.444444444444446</v>
       </c>
       <c r="K30">
-        <v>12.6</v>
+        <v>14.722222222222221</v>
       </c>
       <c r="L30">
-        <v>2.4</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="M30">
-        <v>-2.7</v>
+        <v>1.5000000000000016</v>
       </c>
       <c r="N30">
-        <v>-6.9</v>
+        <v>-3.5000000000000004</v>
       </c>
       <c r="O30">
-        <v>-8.4</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
@@ -3268,40 +3253,37 @@
         <v>38</v>
       </c>
       <c r="D31">
-        <v>-15.7</v>
-      </c>
-      <c r="E31">
-        <v>-16.7</v>
+        <v>1.6111111111111103</v>
       </c>
       <c r="F31">
-        <v>-9.1999999999999993</v>
+        <v>-5.6111111111111116</v>
       </c>
       <c r="G31">
-        <v>2.8</v>
+        <v>5.1111111111111125</v>
       </c>
       <c r="H31">
-        <v>9.5</v>
+        <v>16.388888888888889</v>
       </c>
       <c r="I31">
-        <v>13.9</v>
+        <v>19.611111111111111</v>
       </c>
       <c r="J31">
-        <v>15.4</v>
+        <v>24.111111111111114</v>
       </c>
       <c r="K31">
-        <v>10.6</v>
+        <v>14.722222222222221</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>8.6666666666666679</v>
       </c>
       <c r="M31">
-        <v>-3.8</v>
+        <v>0.61111111111111194</v>
       </c>
       <c r="N31">
-        <v>-11.4</v>
+        <v>-4.4444444444444446</v>
       </c>
       <c r="O31">
-        <v>-12.1</v>
+        <v>-0.88888888888888962</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
@@ -3309,226 +3291,151 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>-13.2</v>
-      </c>
-      <c r="E32">
-        <v>-16.600000000000001</v>
+        <v>-0.33333333333333409</v>
       </c>
       <c r="F32">
-        <v>-6.8</v>
+        <v>-3.9444444444444451</v>
       </c>
       <c r="G32">
-        <v>3.9</v>
+        <v>6.7777777777777795</v>
       </c>
       <c r="H32">
-        <v>15.3</v>
+        <v>16.388888888888889</v>
       </c>
       <c r="I32">
-        <v>10.7</v>
+        <v>20.611111111111107</v>
       </c>
       <c r="J32">
-        <v>16.100000000000001</v>
+        <v>24.666666666666668</v>
       </c>
       <c r="K32">
-        <v>9.1</v>
+        <v>14.722222222222221</v>
       </c>
       <c r="L32">
-        <v>0.4</v>
+        <v>6.2222222222222232</v>
       </c>
       <c r="M32">
-        <v>-8.9</v>
+        <v>-0.72222222222222265</v>
       </c>
       <c r="N32">
-        <v>-8.1</v>
+        <v>-5.4999999999999991</v>
       </c>
       <c r="O32">
-        <v>-9.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-1.0555555555555547</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33">
-        <v>-8.3000000000000007</v>
+        <v>-0.33333333333333409</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33">
-        <v>-3.1</v>
+        <v>-3.4444444444444438</v>
       </c>
       <c r="G33">
-        <v>1.1000000000000001</v>
+        <v>6.2222222222222232</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>19.111111111111114</v>
       </c>
       <c r="I33">
-        <v>11.1</v>
+        <v>13.833333333333332</v>
       </c>
       <c r="J33">
-        <v>19.2</v>
+        <v>24.722222222222221</v>
       </c>
       <c r="K33">
-        <v>10.8</v>
+        <v>15.277777777777777</v>
       </c>
       <c r="L33">
-        <v>-0.6</v>
+        <v>5.2777777777777777</v>
       </c>
       <c r="M33">
-        <v>-11.6</v>
+        <v>-2.0555555555555549</v>
       </c>
       <c r="N33">
-        <v>-1.9</v>
+        <v>-0.49999999999999922</v>
       </c>
       <c r="O33">
-        <v>-3.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.16666666666666705</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>41</v>
       </c>
       <c r="D34">
-        <v>-7.1</v>
+        <v>-3.2777777777777768</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34">
-        <v>-5.4</v>
+        <v>-3.9999999999999996</v>
       </c>
       <c r="G34">
-        <v>0.9</v>
+        <v>7.5</v>
       </c>
       <c r="H34">
-        <v>7.8</v>
+        <v>18.111111111111107</v>
       </c>
       <c r="I34">
-        <v>9.5</v>
+        <v>13.388888888888889</v>
       </c>
       <c r="J34">
-        <v>22.1</v>
+        <v>24.611111111111107</v>
       </c>
       <c r="K34">
-        <v>12.5</v>
+        <v>14.444444444444445</v>
       </c>
       <c r="L34">
-        <v>3.2</v>
+        <v>9.5555555555555571</v>
       </c>
       <c r="M34">
-        <v>-10.1</v>
+        <v>2.8888888888888906</v>
       </c>
       <c r="N34">
-        <v>1.3</v>
+        <v>0.72222222222222066</v>
       </c>
       <c r="O34">
-        <v>-15.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.38888888888888851</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="D35">
-        <v>-14.3</v>
+        <v>-4.0555555555555562</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35">
-        <v>-3.8</v>
+        <v>-3.1666666666666661</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35">
-        <v>9</v>
+        <v>14.333333333333332</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35">
-        <v>23.6</v>
+        <v>24.666666666666668</v>
       </c>
       <c r="K35">
-        <v>12.2</v>
+        <v>15.777777777777777</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35">
-        <v>-1</v>
+        <v>7.4444444444444438</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35">
-        <v>-12.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>61</v>
+        <v>-1.5555555555555558</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
